--- a/description_variables.xlsx
+++ b/description_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aminerazig/Desktop/ENSAE 2A/Projet-Python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4825C12B-71B1-5B4D-B4F1-3A08E39025BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8A193C-20CA-B64D-98B7-156BF5744D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{266ACC86-EAE5-4042-AB80-199E482EDB01}"/>
   </bookViews>
@@ -1216,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E788FED9-74C4-F746-8BCE-88913CC1CB43}">
   <dimension ref="A1:E245"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A238" sqref="A238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,7 +1453,7 @@
       <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3258,7 +3258,7 @@
       <c r="E154" s="1"/>
     </row>
     <row r="155" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="3" t="s">
         <v>170</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -3882,7 +3882,7 @@
       <c r="E202" s="1"/>
     </row>
     <row r="203" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -3895,7 +3895,7 @@
       <c r="E203" s="1"/>
     </row>
     <row r="204" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="3" t="s">
         <v>219</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -4233,7 +4233,7 @@
       <c r="E229" s="1"/>
     </row>
     <row r="230" spans="1:5" ht="20" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B230" s="1" t="s">
